--- a/monthly-analysis.xlsx
+++ b/monthly-analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="144">
   <si>
     <t>DATE</t>
   </si>
@@ -56,385 +56,409 @@
     <t>STATE</t>
   </si>
   <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Needed a break</t>
+  </si>
+  <si>
+    <t>5, 4 Days and currently on self disabled</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>08148569307</t>
+  </si>
+  <si>
+    <t>ABIA</t>
+  </si>
+  <si>
+    <t>phone call</t>
+  </si>
+  <si>
+    <t>Excluded himself due to lack of winnings</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>07016410811</t>
+  </si>
+  <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>6,9 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08127491837</t>
+  </si>
+  <si>
+    <t>To limit spending on betting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Days </t>
+  </si>
+  <si>
+    <t>08035681750</t>
+  </si>
+  <si>
+    <t>AKWA IBOM</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>09138489838</t>
+  </si>
+  <si>
+    <t>PLATEAU</t>
+  </si>
+  <si>
     <t>SM(TWITTER)</t>
   </si>
   <si>
-    <t>Excluded himsef to control his gambling behaviour</t>
-  </si>
-  <si>
-    <t>2 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>09068384470</t>
+    <t>1 Day and currently on exclusion</t>
+  </si>
+  <si>
+    <t>09061467017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Days </t>
+  </si>
+  <si>
+    <t>09095064545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2 Days </t>
+  </si>
+  <si>
+    <t>09049371588</t>
+  </si>
+  <si>
+    <t>08127600007</t>
+  </si>
+  <si>
+    <t>09079743408</t>
+  </si>
+  <si>
+    <t>DELTA</t>
+  </si>
+  <si>
+    <t>SM(IG)</t>
+  </si>
+  <si>
+    <t>10, 2 Days</t>
+  </si>
+  <si>
+    <t>08120577068</t>
+  </si>
+  <si>
+    <t>12 Days and currently on self disabled</t>
+  </si>
+  <si>
+    <t>08134496350</t>
+  </si>
+  <si>
+    <t>5,5,2 Days and one day</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>09060070827</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>9 Days</t>
+  </si>
+  <si>
+    <t>07077676262</t>
+  </si>
+  <si>
+    <t>13 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>07037450383</t>
+  </si>
+  <si>
+    <t>ABUJA</t>
+  </si>
+  <si>
+    <t>5 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08037888817</t>
+  </si>
+  <si>
+    <t>NASARAWA</t>
+  </si>
+  <si>
+    <t>08154798191</t>
+  </si>
+  <si>
+    <t>08105330111</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>To control gambling behaviour</t>
+  </si>
+  <si>
+    <t>08108290190</t>
+  </si>
+  <si>
+    <t>08033259570</t>
+  </si>
+  <si>
+    <t>RIVERS</t>
+  </si>
+  <si>
+    <t>12 Days</t>
+  </si>
+  <si>
+    <t>08099272708</t>
+  </si>
+  <si>
+    <t>6 Days</t>
+  </si>
+  <si>
+    <t>08137872763</t>
+  </si>
+  <si>
+    <t>KWARA</t>
+  </si>
+  <si>
+    <t>5 Days and currently on self disabled</t>
+  </si>
+  <si>
+    <t>08153432859</t>
+  </si>
+  <si>
+    <t>10 Days</t>
+  </si>
+  <si>
+    <t>07069016151</t>
+  </si>
+  <si>
+    <t>14 Days</t>
+  </si>
+  <si>
+    <t>08064013038</t>
+  </si>
+  <si>
+    <t>08118424859</t>
+  </si>
+  <si>
+    <t>4 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08156789394</t>
+  </si>
+  <si>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>3 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08163460864</t>
   </si>
   <si>
     <t>OYO</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>User claims he needed to take a short break</t>
+    <t>09012592816</t>
+  </si>
+  <si>
+    <t>3,6,5 and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08106592559</t>
+  </si>
+  <si>
+    <t>10 Days and currently on disabled</t>
+  </si>
+  <si>
+    <t>07059963224</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>08131290558</t>
+  </si>
+  <si>
+    <t>1, 6 Days and currently on disabled</t>
+  </si>
+  <si>
+    <t>08089021564</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>08058481926</t>
+  </si>
+  <si>
+    <t>11 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>09162185903</t>
+  </si>
+  <si>
+    <t>Excluded himself due to addiction</t>
+  </si>
+  <si>
+    <t>07061406781</t>
+  </si>
+  <si>
+    <t>ANAMBRA</t>
+  </si>
+  <si>
+    <t>1,3,9 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>08068951948</t>
   </si>
   <si>
     <t>13 Days</t>
   </si>
   <si>
-    <t>07089616894</t>
-  </si>
-  <si>
-    <t>BENUE</t>
-  </si>
-  <si>
-    <t>12 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>07013411884</t>
-  </si>
-  <si>
-    <t>DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Days </t>
-  </si>
-  <si>
-    <t>08095072279</t>
-  </si>
-  <si>
-    <t>BAUCHI</t>
-  </si>
-  <si>
-    <t>10 Days and currently on disabled</t>
-  </si>
-  <si>
-    <t>08160593778</t>
-  </si>
-  <si>
-    <t>RIVERS</t>
-  </si>
-  <si>
-    <t>4 Days</t>
-  </si>
-  <si>
-    <t>09043535907</t>
-  </si>
-  <si>
-    <t>LAGOS</t>
-  </si>
-  <si>
-    <t>SM(IG)</t>
-  </si>
-  <si>
-    <t>5 Day and currently on exclusion</t>
-  </si>
-  <si>
-    <t>08120577068</t>
-  </si>
-  <si>
-    <t>AKWA IBOM</t>
-  </si>
-  <si>
-    <t>phone call</t>
-  </si>
-  <si>
-    <t>Needed to limit his spending on betting</t>
-  </si>
-  <si>
-    <t>5 Days</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>09037993944</t>
-  </si>
-  <si>
-    <t>08075822390</t>
-  </si>
-  <si>
-    <t>EDO</t>
-  </si>
-  <si>
-    <t>07038358925</t>
-  </si>
-  <si>
-    <t>ABUJA</t>
-  </si>
-  <si>
-    <t>4 Days and currently on self-disabled</t>
-  </si>
-  <si>
-    <t>07019249045</t>
-  </si>
-  <si>
-    <t>14 Days</t>
-  </si>
-  <si>
-    <t>08166424828</t>
-  </si>
-  <si>
-    <t>IMO</t>
-  </si>
-  <si>
-    <t>08148792735</t>
-  </si>
-  <si>
-    <t>ANAMBRA</t>
-  </si>
-  <si>
-    <t>5 Day and currently on self-disabled</t>
-  </si>
-  <si>
-    <t>09029358944</t>
-  </si>
-  <si>
-    <t>ENUGU</t>
-  </si>
-  <si>
-    <t>3 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>08148312070</t>
-  </si>
-  <si>
-    <t>NIGER</t>
+    <t>08165314977</t>
+  </si>
+  <si>
+    <t>09118126252</t>
+  </si>
+  <si>
+    <t>07038225428</t>
+  </si>
+  <si>
+    <t>09117917833</t>
+  </si>
+  <si>
+    <t>9 Days and currently on disabled</t>
+  </si>
+  <si>
+    <t>09012575203</t>
+  </si>
+  <si>
+    <t>KATSINA</t>
+  </si>
+  <si>
+    <t>09031882033</t>
   </si>
   <si>
     <t>7 Days</t>
   </si>
   <si>
-    <t>09034269555</t>
-  </si>
-  <si>
-    <t>9 Days</t>
-  </si>
-  <si>
-    <t>09061302025</t>
-  </si>
-  <si>
-    <t>6 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>08062966681</t>
-  </si>
-  <si>
-    <t>KANO</t>
-  </si>
-  <si>
-    <t>9, 9 Days</t>
-  </si>
-  <si>
-    <t>07013000933</t>
-  </si>
-  <si>
-    <t>PLATEAU</t>
-  </si>
-  <si>
-    <t>User stated that he was angry and decided to excluded himself</t>
-  </si>
-  <si>
-    <t>4 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>07083215251</t>
-  </si>
-  <si>
-    <t>User stated that he excluded himself due to lack of winnings</t>
-  </si>
-  <si>
-    <t>2 Days</t>
-  </si>
-  <si>
-    <t>07086393667</t>
-  </si>
-  <si>
-    <t>10 Days</t>
-  </si>
-  <si>
-    <t>08164706908</t>
-  </si>
-  <si>
-    <t>6 Days</t>
-  </si>
-  <si>
-    <t>08187303263</t>
-  </si>
-  <si>
-    <t>User stated that he excluded himself due to addiction</t>
-  </si>
-  <si>
-    <t>09117917833</t>
-  </si>
-  <si>
-    <t>KWARA</t>
-  </si>
-  <si>
-    <t>08072885295</t>
-  </si>
-  <si>
-    <t>OSUN</t>
+    <t>08105199585</t>
+  </si>
+  <si>
+    <t>2 Days and currently on self disabled</t>
+  </si>
+  <si>
+    <t>09135650972</t>
+  </si>
+  <si>
+    <t>08073400409</t>
+  </si>
+  <si>
+    <t>07063057120</t>
+  </si>
+  <si>
+    <t>3, 5 Days and currently on disabled</t>
+  </si>
+  <si>
+    <t>08121737015</t>
+  </si>
+  <si>
+    <t>07013075871</t>
   </si>
   <si>
     <t>8 Days and currently on exclusion</t>
   </si>
   <si>
-    <t>07017550102</t>
-  </si>
-  <si>
-    <t>GOMBE</t>
-  </si>
-  <si>
-    <t>08160214057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Days </t>
-  </si>
-  <si>
-    <t>09025214824</t>
-  </si>
-  <si>
-    <t>OGUN</t>
-  </si>
-  <si>
-    <t>08072326033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Days </t>
-  </si>
-  <si>
-    <t>08156938681</t>
-  </si>
-  <si>
-    <t>6, 3, 3 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>08132742841</t>
-  </si>
-  <si>
-    <t>08131803502</t>
+    <t>08036012135</t>
+  </si>
+  <si>
+    <t>KOGI</t>
+  </si>
+  <si>
+    <t>09165229023</t>
+  </si>
+  <si>
+    <t>08105789507</t>
+  </si>
+  <si>
+    <t>Not financially stable</t>
+  </si>
+  <si>
+    <t>07048147353</t>
+  </si>
+  <si>
+    <t>08078073271</t>
+  </si>
+  <si>
+    <t>TARABA</t>
+  </si>
+  <si>
+    <t>8, 6 Days and currently on disabled</t>
+  </si>
+  <si>
+    <t>09069226960</t>
+  </si>
+  <si>
+    <t>08107371242</t>
+  </si>
+  <si>
+    <t>09151727880</t>
+  </si>
+  <si>
+    <t>09032680033</t>
+  </si>
+  <si>
+    <t>07034964582</t>
+  </si>
+  <si>
+    <t>9 Days and currently on exclusion</t>
+  </si>
+  <si>
+    <t>09061540233</t>
+  </si>
+  <si>
+    <t>08081384342</t>
+  </si>
+  <si>
+    <t>09015011102</t>
+  </si>
+  <si>
+    <t>09017959047</t>
+  </si>
+  <si>
+    <t>KADUNA</t>
+  </si>
+  <si>
+    <t>08100974415</t>
   </si>
   <si>
     <t>ADAMAWA</t>
   </si>
   <si>
-    <t>User stated he activated due to third party access</t>
-  </si>
-  <si>
-    <t>1, 2, 2 Days and currently on self-disabled</t>
-  </si>
-  <si>
-    <t>09068552940</t>
-  </si>
-  <si>
-    <t>9 Days and currently on exclusion</t>
-  </si>
-  <si>
-    <t>08056360928</t>
-  </si>
-  <si>
-    <t>10 Days and curreny on disabled</t>
-  </si>
-  <si>
-    <t>08113959797</t>
-  </si>
-  <si>
-    <t>09095064545</t>
-  </si>
-  <si>
-    <t>09075428260</t>
-  </si>
-  <si>
-    <t>09167011446</t>
-  </si>
-  <si>
-    <t>09063233893</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>07017909887</t>
-  </si>
-  <si>
-    <t>09065572435</t>
-  </si>
-  <si>
-    <t>09054404070</t>
-  </si>
-  <si>
-    <t>09121532721</t>
-  </si>
-  <si>
-    <t>07072729254</t>
-  </si>
-  <si>
-    <t>08167053389</t>
+    <t>09042470176</t>
+  </si>
+  <si>
+    <t>09135348462</t>
+  </si>
+  <si>
+    <t>07030166085</t>
   </si>
   <si>
     <t>07065141006</t>
-  </si>
-  <si>
-    <t>NASARAWA</t>
-  </si>
-  <si>
-    <t>08165209667</t>
-  </si>
-  <si>
-    <t>07062431403</t>
-  </si>
-  <si>
-    <t>09134535942</t>
-  </si>
-  <si>
-    <t>BAYELSA</t>
-  </si>
-  <si>
-    <t>09157759928</t>
-  </si>
-  <si>
-    <t>08158248224</t>
-  </si>
-  <si>
-    <t>User stated he was experiencing some difficulties and needed a break</t>
-  </si>
-  <si>
-    <t>09033854741</t>
-  </si>
-  <si>
-    <t>1 Day</t>
-  </si>
-  <si>
-    <t>08022519186</t>
-  </si>
-  <si>
-    <t>08121658200</t>
-  </si>
-  <si>
-    <t>08128982770</t>
-  </si>
-  <si>
-    <t>07042707176</t>
-  </si>
-  <si>
-    <t>09076664546</t>
-  </si>
-  <si>
-    <t>ABIA</t>
-  </si>
-  <si>
-    <t>08128059962</t>
-  </si>
-  <si>
-    <t>08106592559</t>
-  </si>
-  <si>
-    <t>08122428726</t>
-  </si>
-  <si>
-    <t>08068746242</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1651,10 +1675,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4">
-        <v>45689</v>
+        <v>45718</v>
       </c>
       <c r="B2" s="5">
-        <v>5636120</v>
+        <v>5168424</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1663,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>11</v>
@@ -1680,10 +1704,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
-        <v>45689</v>
+        <v>45719</v>
       </c>
       <c r="B3" s="5">
-        <v>21391508</v>
+        <v>8967445</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>15</v>
@@ -1709,19 +1733,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
-        <v>45689</v>
+        <v>45719</v>
       </c>
       <c r="B4" s="5">
-        <v>14705517</v>
+        <v>9289982</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>20</v>
@@ -1733,21 +1757,21 @@
         <v>21</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
-        <v>45689</v>
+        <v>45719</v>
       </c>
       <c r="B5" s="5">
-        <v>3603622</v>
+        <v>10087889</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1767,16 +1791,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
-        <v>45689</v>
+        <v>45719</v>
       </c>
       <c r="B6" s="5">
-        <v>999565</v>
+        <v>20308977</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -1796,869 +1820,869 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
-        <v>45691</v>
+        <v>45720</v>
       </c>
       <c r="B7" s="5">
-        <v>9219911</v>
+        <v>22577673</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>45691</v>
+        <v>45721</v>
       </c>
       <c r="B8" s="5">
-        <v>20768625</v>
+        <v>240334</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>45691</v>
+        <v>45721</v>
       </c>
       <c r="B9" s="5">
-        <v>2951010</v>
+        <v>16108433</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>45691</v>
+        <v>45721</v>
       </c>
       <c r="B10" s="5">
-        <v>22354357</v>
+        <v>941709</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>45692</v>
+        <v>45721</v>
       </c>
       <c r="B11" s="5">
-        <v>1530444</v>
+        <v>12723673</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>45692</v>
+        <v>45723</v>
       </c>
       <c r="B12" s="5">
-        <v>22361571</v>
+        <v>20768625</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" s="8">
         <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>45693</v>
+        <v>45723</v>
       </c>
       <c r="B13" s="5">
-        <v>18220873</v>
+        <v>18979552</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>45693</v>
+        <v>45723</v>
       </c>
       <c r="B14" s="5">
-        <v>10931913</v>
+        <v>20574715</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>45693</v>
+        <v>45723</v>
       </c>
       <c r="B15" s="5">
-        <v>5369623</v>
+        <v>20604451</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>45693</v>
+        <v>45724</v>
       </c>
       <c r="B16" s="5">
-        <v>21944605</v>
+        <v>20859549</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>45693</v>
+        <v>45724</v>
       </c>
       <c r="B17" s="5">
-        <v>4004292</v>
+        <v>3605585</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>45695</v>
+        <v>45724</v>
       </c>
       <c r="B18" s="5">
-        <v>17005982</v>
+        <v>17992395</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>45695</v>
+        <v>45724</v>
       </c>
       <c r="B19" s="5">
-        <v>6710651</v>
+        <v>19149565</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>45695</v>
+        <v>45724</v>
       </c>
       <c r="B20" s="5">
-        <v>8421313</v>
+        <v>22411922</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>45696</v>
+        <v>45726</v>
       </c>
       <c r="B21" s="5">
-        <v>11726509</v>
+        <v>12048323</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>45696</v>
+        <v>45726</v>
       </c>
       <c r="B22" s="5">
-        <v>15060169</v>
+        <v>1214302</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
-        <v>45696</v>
+        <v>45726</v>
       </c>
       <c r="B23" s="5">
-        <v>15835015</v>
+        <v>17812664</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>45697</v>
+        <v>45726</v>
       </c>
       <c r="B24" s="5">
-        <v>7029632</v>
+        <v>22588292</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
-        <v>45697</v>
+        <v>45728</v>
       </c>
       <c r="B25" s="5">
-        <v>17372585</v>
+        <v>6680627</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>45699</v>
+        <v>45728</v>
       </c>
       <c r="B26" s="5">
-        <v>7486309</v>
+        <v>13464957</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>45699</v>
+        <v>45730</v>
       </c>
       <c r="B27" s="5">
-        <v>8166333</v>
+        <v>4875820</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="8">
         <v>2</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>45700</v>
+        <v>45730</v>
       </c>
       <c r="B28" s="5">
-        <v>8045877</v>
+        <v>30334</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>45700</v>
+        <v>45730</v>
       </c>
       <c r="B29" s="5">
-        <v>22221861</v>
+        <v>7704317</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
-        <v>45702</v>
+        <v>45730</v>
       </c>
       <c r="B30" s="5">
-        <v>3627847</v>
+        <v>22521740</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>45702</v>
+        <v>45730</v>
       </c>
       <c r="B31" s="5">
-        <v>866077</v>
+        <v>22376335</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E31" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>45702</v>
+        <v>45730</v>
       </c>
       <c r="B32" s="5">
-        <v>16872714</v>
+        <v>16589891</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E32" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>45702</v>
+        <v>45730</v>
       </c>
       <c r="B33" s="5">
-        <v>13795508</v>
+        <v>6561182</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>45703</v>
+        <v>45730</v>
       </c>
       <c r="B34" s="5">
-        <v>19291598</v>
+        <v>985043</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E34" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>45703</v>
+        <v>45730</v>
       </c>
       <c r="B35" s="5">
-        <v>3746059</v>
+        <v>2784757</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>45703</v>
+        <v>45730</v>
       </c>
       <c r="B36" s="5">
-        <v>15324436</v>
+        <v>17964776</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E36" s="8">
         <v>2</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>19</v>
@@ -2666,103 +2690,103 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>45705</v>
+        <v>45731</v>
       </c>
       <c r="B37" s="5">
-        <v>240334</v>
+        <v>21984140</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>45705</v>
+        <v>45731</v>
       </c>
       <c r="B38" s="5">
-        <v>22219059</v>
+        <v>22601396</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>45706</v>
+        <v>45733</v>
       </c>
       <c r="B39" s="5">
-        <v>22015020</v>
+        <v>22501430</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>45706</v>
+        <v>45733</v>
       </c>
       <c r="B40" s="5">
-        <v>21081072</v>
+        <v>20426844</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
@@ -2774,53 +2798,53 @@
         <v>12</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>45707</v>
+        <v>45733</v>
       </c>
       <c r="B41" s="5">
-        <v>11323690</v>
+        <v>22641866</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>45707</v>
+        <v>45734</v>
       </c>
       <c r="B42" s="5">
-        <v>10715732</v>
+        <v>17372585</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -2832,166 +2856,166 @@
         <v>12</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>45707</v>
+        <v>45737</v>
       </c>
       <c r="B43" s="5">
-        <v>22212902</v>
+        <v>7187718</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="8">
         <v>2</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>45707</v>
+        <v>45737</v>
       </c>
       <c r="B44" s="5">
-        <v>22308874</v>
+        <v>7705472</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>45707</v>
+        <v>45737</v>
       </c>
       <c r="B45" s="5">
-        <v>22370046</v>
+        <v>22516915</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>45709</v>
+        <v>45738</v>
       </c>
       <c r="B46" s="5">
-        <v>21487975</v>
+        <v>22691621</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>39</v>
+        <v>110</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>45709</v>
+        <v>45738</v>
       </c>
       <c r="B47" s="5">
-        <v>1633519</v>
+        <v>15941201</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>45709</v>
+        <v>45739</v>
       </c>
       <c r="B48" s="5">
-        <v>20202228</v>
+        <v>7615410</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>10</v>
@@ -3000,204 +3024,204 @@
         <v>1</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>45709</v>
+        <v>45739</v>
       </c>
       <c r="B49" s="5">
-        <v>7644004</v>
+        <v>2608075</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E49" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>45709</v>
+        <v>45739</v>
       </c>
       <c r="B50" s="5">
-        <v>21624321</v>
+        <v>22490252</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>45710</v>
+        <v>45739</v>
       </c>
       <c r="B51" s="5">
-        <v>19544142</v>
+        <v>5304454</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="8">
         <v>2</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>45711</v>
+        <v>45740</v>
       </c>
       <c r="B52" s="5">
-        <v>19953805</v>
+        <v>22673239</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>45711</v>
+        <v>45740</v>
       </c>
       <c r="B53" s="5">
-        <v>22449322</v>
+        <v>16614294</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E53" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>45712</v>
+        <v>45740</v>
       </c>
       <c r="B54" s="5">
-        <v>17417832</v>
+        <v>20132389</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>45712</v>
+        <v>45740</v>
       </c>
       <c r="B55" s="5">
-        <v>7914820</v>
+        <v>21792706</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -3209,250 +3233,453 @@
         <v>12</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>45713</v>
+        <v>45740</v>
       </c>
       <c r="B56" s="5">
-        <v>20214419</v>
+        <v>17499086</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E56" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>45713</v>
+        <v>45740</v>
       </c>
       <c r="B57" s="5">
-        <v>22497697</v>
+        <v>4784183</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>45713</v>
+        <v>45741</v>
       </c>
       <c r="B58" s="5">
-        <v>3216485</v>
+        <v>20825207</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>45714</v>
+        <v>45742</v>
       </c>
       <c r="B59" s="5">
-        <v>22328262</v>
+        <v>22533587</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>45714</v>
+        <v>45743</v>
       </c>
       <c r="B60" s="5">
-        <v>22376335</v>
+        <v>1112932</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>45714</v>
+        <v>45743</v>
       </c>
       <c r="B61" s="5">
-        <v>15838127</v>
+        <v>13225176</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E61" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>45715</v>
+        <v>45744</v>
       </c>
       <c r="B62" s="5">
-        <v>21823514</v>
+        <v>6798402</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E62" s="8">
         <v>1</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B63" s="5">
+        <v>9881178</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>31</v>
+      <c r="I63" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B64" s="5">
+        <v>13975242</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4">
+        <v>45744</v>
+      </c>
+      <c r="B65" s="5">
+        <v>7673415</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4">
+        <v>45745</v>
+      </c>
+      <c r="B66" s="5">
+        <v>22612623</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4">
+        <v>45746</v>
+      </c>
+      <c r="B67" s="5">
+        <v>20275022</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4">
+        <v>45746</v>
+      </c>
+      <c r="B68" s="5">
+        <v>22338186</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4">
+        <v>45747</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1633519</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B69">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B62">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E62">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>SUMIF($B$28:$B$58,$B2,$E$28:$E$58)&gt;#REF!</formula>
+  <conditionalFormatting sqref="E2:E69">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>SUMIF($B$21:$B$51,$B2,$E$21:$E$51)&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F62">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>SUMIF($B$28:$B$58,$B2,$G$28:$G$58)&gt;#REF!</formula>
+  <conditionalFormatting sqref="F2:F69">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>SUMIF($B$21:$B$51,$B2,$G$21:$G$51)&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G62">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>SUMIF($B$31:$B$44,$B2,$H$31:$H$44)&gt;#REF!</formula>
+      <formula>SUMIF($B$24:$B$37,$B2,$H$24:$H$37)&gt;#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>SUMIF($B$31:$B$46,$B2,$H$31:$H$46)&gt;#REF!</formula>
+      <formula>SUMIF($B$24:$B$39,$B2,$H$24:$H$39)&gt;#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>G2&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H62">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>SUMIF($B$28:$B$58,$B2,$I$28:$I$58)&gt;#REF!</formula>
+  <conditionalFormatting sqref="H2:H69">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>SUMIF($B$21:$B$51,$B2,$I$21:$I$51)&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F62 H2:H62">
+  <conditionalFormatting sqref="E2:F69 H2:H69">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>E2&lt;0</formula>
     </cfRule>
